--- a/data/january_2024.xlsx
+++ b/data/january_2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjani\PycharmProjects\SapLimerick2024\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjani\PycharmProjects\SAP-2024-Limerick\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{420E1D7E-DA20-4477-ADD8-728EA241E50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1B9E92-843E-4F99-926E-79EB35D3F1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{03273CDA-BBD5-4D40-A33B-6F576E0F213A}"/>
   </bookViews>
@@ -256,7 +256,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -297,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -305,10 +305,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5B9C9D-0215-4803-B100-D5F9AA936EE4}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -725,7 +724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -851,7 +850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -893,7 +892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -949,7 +948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -1159,7 +1158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>55</v>
       </c>
@@ -1173,7 +1172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>56</v>
       </c>
@@ -1201,7 +1200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>58</v>
       </c>
@@ -1215,7 +1214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>59</v>
       </c>
@@ -1229,7 +1228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>60</v>
       </c>
@@ -1243,7 +1242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>61</v>
       </c>
@@ -1257,7 +1256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>62</v>
       </c>
@@ -1271,7 +1270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>63</v>
       </c>
@@ -1285,7 +1284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>64</v>
       </c>
@@ -1299,7 +1298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>65</v>
       </c>
@@ -1313,7 +1312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>66</v>
       </c>
@@ -1327,7 +1326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>67</v>
       </c>
@@ -1355,7 +1354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>69</v>
       </c>
@@ -1369,7 +1368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>70</v>
       </c>
@@ -1381,12 +1380,6 @@
       </c>
       <c r="D52" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="4">
-        <f>SUM(B2:B52)</f>
-        <v>7650</v>
       </c>
     </row>
   </sheetData>

--- a/data/january_2024.xlsx
+++ b/data/january_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjani\PycharmProjects\SAP-2024-Limerick\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1B9E92-843E-4F99-926E-79EB35D3F1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBB2974-9805-495A-9F36-4C2FB295AF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{03273CDA-BBD5-4D40-A33B-6F576E0F213A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>Expense Name</t>
   </si>
@@ -111,144 +111,6 @@
   </si>
   <si>
     <t>Coffee</t>
-  </si>
-  <si>
-    <t>Medical Bills</t>
-  </si>
-  <si>
-    <t>Vacation Savings</t>
-  </si>
-  <si>
-    <t>Savings</t>
-  </si>
-  <si>
-    <t>Pet Food</t>
-  </si>
-  <si>
-    <t>Pets</t>
-  </si>
-  <si>
-    <t>Home Repairs</t>
-  </si>
-  <si>
-    <t>Personal Care</t>
-  </si>
-  <si>
-    <t>Streaming Service</t>
-  </si>
-  <si>
-    <t>Books</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Student Loan</t>
-  </si>
-  <si>
-    <t>Charity Donation</t>
-  </si>
-  <si>
-    <t>Charity</t>
-  </si>
-  <si>
-    <t>Snacks</t>
-  </si>
-  <si>
-    <t>Childcare</t>
-  </si>
-  <si>
-    <t>Family</t>
-  </si>
-  <si>
-    <t>Fitness Classes</t>
-  </si>
-  <si>
-    <t>Office Supplies</t>
-  </si>
-  <si>
-    <t>Work</t>
-  </si>
-  <si>
-    <t>House Cleaning</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>Babysitting</t>
-  </si>
-  <si>
-    <t>Transportation Pass</t>
-  </si>
-  <si>
-    <t>Concert Tickets</t>
-  </si>
-  <si>
-    <t>Gifts</t>
-  </si>
-  <si>
-    <t>Haircuts</t>
-  </si>
-  <si>
-    <t>Spa Day</t>
-  </si>
-  <si>
-    <t>Hobby Supplies</t>
-  </si>
-  <si>
-    <t>Hobbies</t>
-  </si>
-  <si>
-    <t>Gardening</t>
-  </si>
-  <si>
-    <t>Mortgage Payment</t>
-  </si>
-  <si>
-    <t>Property Tax</t>
-  </si>
-  <si>
-    <t>Water Bill</t>
-  </si>
-  <si>
-    <t>Electricity Bill</t>
-  </si>
-  <si>
-    <t>Heating Bill</t>
-  </si>
-  <si>
-    <t>Trash Collection</t>
-  </si>
-  <si>
-    <t>Life Insurance</t>
-  </si>
-  <si>
-    <t>Health Insurance</t>
-  </si>
-  <si>
-    <t>Vision Insurance</t>
-  </si>
-  <si>
-    <t>Dental Insurance</t>
-  </si>
-  <si>
-    <t>Auto Insurance</t>
-  </si>
-  <si>
-    <t>Home Insurance</t>
-  </si>
-  <si>
-    <t>Magazine Subscription</t>
-  </si>
-  <si>
-    <t>Online Courses</t>
-  </si>
-  <si>
-    <t>Professional Development</t>
-  </si>
-  <si>
-    <t>Retirement Savings</t>
   </si>
 </sst>
 </file>
@@ -644,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5B9C9D-0215-4803-B100-D5F9AA936EE4}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -672,7 +534,7 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1200</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -686,7 +548,7 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>300</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -700,7 +562,7 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>150</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -714,7 +576,7 @@
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -728,7 +590,7 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -742,7 +604,7 @@
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>100</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -756,7 +618,7 @@
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>400</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -770,7 +632,7 @@
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>100</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -784,7 +646,7 @@
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>200</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -798,7 +660,7 @@
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -812,7 +674,7 @@
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -826,7 +688,7 @@
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -840,7 +702,7 @@
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -851,536 +713,232 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="3">
-        <v>120</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="3">
-        <v>200</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="3">
-        <v>40</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="3">
-        <v>300</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="3">
-        <v>50</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="3">
-        <v>15</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="3">
-        <v>25</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="3">
-        <v>250</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="3">
-        <v>50</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="3">
-        <v>20</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="3">
-        <v>400</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="3">
-        <v>30</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="3">
-        <v>20</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="3">
-        <v>100</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="3">
-        <v>50</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="3">
-        <v>80</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="3">
-        <v>60</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="3">
-        <v>50</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="3">
-        <v>25</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="3">
-        <v>75</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="3">
-        <v>40</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="3">
-        <v>30</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="3">
-        <v>1500</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="3">
-        <v>200</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="3">
-        <v>40</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="3">
-        <v>100</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="3">
-        <v>70</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="3">
-        <v>25</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="3">
-        <v>50</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" s="3">
-        <v>100</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="3">
-        <v>20</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="3">
-        <v>30</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="3">
-        <v>90</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="3">
-        <v>80</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B49" s="3">
-        <v>10</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="3">
-        <v>100</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B51" s="3">
-        <v>150</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52" s="3">
-        <v>300</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
